--- a/NTDS_Wageningen.xlsx
+++ b/NTDS_Wageningen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15000" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="15600" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Nummer</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>Team-captain</t>
   </si>
   <si>
-    <t>Beginner</t>
-  </si>
-  <si>
     <t>EHBO</t>
   </si>
   <si>
@@ -126,6 +120,12 @@
   </si>
   <si>
     <t>laura.wenzel@wur.nl</t>
+  </si>
+  <si>
+    <t>Beginners</t>
+  </si>
+  <si>
+    <t>Open Class</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,8 @@
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
@@ -522,73 +523,73 @@
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -596,34 +597,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2"/>
       <c r="T2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -633,47 +634,47 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>0</v>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">

--- a/NTDS_Wageningen.xlsx
+++ b/NTDS_Wageningen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16200" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="17400" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>E-mail</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Ja</t>
   </si>
   <si>
-    <t>Team-captain</t>
-  </si>
-  <si>
     <t>EHBO</t>
   </si>
   <si>
@@ -119,16 +116,16 @@
     <t>Jury Latin</t>
   </si>
   <si>
-    <t>Allergiën / dieet</t>
-  </si>
-  <si>
     <t>Wil je vrijwilliger zijn voor dit NTDS?</t>
   </si>
   <si>
     <t>Ben je op een eerder ETDS of NTDS vrijwilliger geweest?</t>
   </si>
   <si>
-    <t>Doe je mee aan de Same Seks wedstrijd?</t>
+    <t>Teamcaptain</t>
+  </si>
+  <si>
+    <t>Allergiën / Dieet</t>
   </si>
 </sst>
 </file>
@@ -494,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,16 +523,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -547,16 +544,16 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -565,68 +562,66 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" s="2"/>
       <c r="T2" t="s">
@@ -640,28 +635,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>5</v>
